--- a/inDesign/datamerge.xlsx
+++ b/inDesign/datamerge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juzer\Documents\GitHub\forTesting\inDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F5C23-9877-411C-B379-4E103A728350}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4BC540-4905-418B-9B1A-C841A4734C32}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23850" windowHeight="10575" xr2:uid="{18C2D372-F5CB-4AC8-B2C7-EDE4426B6DE8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="479">
   <si>
     <t>xmlViewPreferences</t>
   </si>
@@ -1448,6 +1448,27 @@
   </si>
   <si>
     <t>Application.reflect.methods;</t>
+  </si>
+  <si>
+    <t>fittingOption</t>
+  </si>
+  <si>
+    <t>centerImage</t>
+  </si>
+  <si>
+    <t>linkImages</t>
+  </si>
+  <si>
+    <t>removeBlankLines</t>
+  </si>
+  <si>
+    <t>createNewDocument</t>
+  </si>
+  <si>
+    <t>documentSize</t>
+  </si>
+  <si>
+    <t>app.dataMergeOptions</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41D8AD-053E-4305-AC7D-036E7EC582F4}">
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,9 +1857,11 @@
     <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
@@ -1877,8 +1900,14 @@
       <c r="N1" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="P1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>175</v>
       </c>
@@ -1915,8 +1944,14 @@
       <c r="N3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="P3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>341</v>
       </c>
@@ -1953,8 +1988,14 @@
       <c r="N4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="P4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>398</v>
       </c>
@@ -1991,8 +2032,14 @@
       <c r="N5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="P5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>346</v>
       </c>
@@ -2020,8 +2067,14 @@
       <c r="M6" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>353</v>
       </c>
@@ -2049,8 +2102,14 @@
       <c r="M7" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>398</v>
       </c>
@@ -2081,8 +2140,14 @@
       <c r="M8" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>334</v>
       </c>
@@ -2110,8 +2175,14 @@
       <c r="M9" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2139,8 +2210,14 @@
       <c r="M10" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2168,8 +2245,14 @@
       <c r="M11" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="P11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2197,8 +2280,14 @@
       <c r="M12" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2226,8 +2315,11 @@
       <c r="M13" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>285</v>
       </c>
@@ -2255,8 +2347,11 @@
       <c r="M14" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>286</v>
       </c>
@@ -2285,7 +2380,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>287</v>
       </c>
@@ -4238,165 +4333,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F947AD5-B74A-4734-8A3A-31B914E906D3}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A29"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A29">
-    <sortCondition ref="A1:A29"/>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
